--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H2">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I2">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J2">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N2">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O2">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P2">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q2">
-        <v>44.79701202471567</v>
+        <v>30.065275557294</v>
       </c>
       <c r="R2">
-        <v>403.173108222441</v>
+        <v>270.587480015646</v>
       </c>
       <c r="S2">
-        <v>0.02074828870994756</v>
+        <v>0.01685273673769</v>
       </c>
       <c r="T2">
-        <v>0.02707949347459022</v>
+        <v>0.02108932614676181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H3">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I3">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J3">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
         <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P3">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q3">
-        <v>98.49322301287832</v>
+        <v>72.35021511920502</v>
       </c>
       <c r="R3">
-        <v>886.4390071159049</v>
+        <v>651.1519360728452</v>
       </c>
       <c r="S3">
-        <v>0.04561835119531996</v>
+        <v>0.0405550624671854</v>
       </c>
       <c r="T3">
-        <v>0.0595384930672846</v>
+        <v>0.0507501513009456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H4">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I4">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J4">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N4">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O4">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P4">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q4">
-        <v>0.3468547047813333</v>
+        <v>0.314908093247</v>
       </c>
       <c r="R4">
-        <v>3.121692343032</v>
+        <v>2.834172839223</v>
       </c>
       <c r="S4">
-        <v>0.0001606500351236855</v>
+        <v>0.0001765180293107974</v>
       </c>
       <c r="T4">
-        <v>0.0002096713439185379</v>
+        <v>0.0002208926863844982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H5">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I5">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J5">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N5">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O5">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P5">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q5">
-        <v>48.713907513167</v>
+        <v>9.397169483989501</v>
       </c>
       <c r="R5">
-        <v>292.283445079002</v>
+        <v>56.38301690393701</v>
       </c>
       <c r="S5">
-        <v>0.02256244717203966</v>
+        <v>0.00526747287219552</v>
       </c>
       <c r="T5">
-        <v>0.01963148702710782</v>
+        <v>0.004394437734357689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H6">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I6">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J6">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N6">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O6">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P6">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q6">
-        <v>0.08648632827133333</v>
+        <v>0.027778627241</v>
       </c>
       <c r="R6">
-        <v>0.7783769544419999</v>
+        <v>0.250007645169</v>
       </c>
       <c r="S6">
-        <v>4.005720978548487E-05</v>
+        <v>1.557098290800205E-05</v>
       </c>
       <c r="T6">
-        <v>5.2280405683591E-05</v>
+        <v>1.948535374899117E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J7">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N7">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O7">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P7">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q7">
-        <v>211.1238489360728</v>
+        <v>192.8945504960633</v>
       </c>
       <c r="R7">
-        <v>1900.114640424655</v>
+        <v>1736.05095446457</v>
       </c>
       <c r="S7">
-        <v>0.09778461493958976</v>
+        <v>0.1081247724289207</v>
       </c>
       <c r="T7">
-        <v>0.1276229514245385</v>
+        <v>0.1353061301431369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J8">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
         <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P8">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q8">
-        <v>464.1887348451972</v>
+        <v>464.1887348451974</v>
       </c>
       <c r="R8">
-        <v>4177.698613606774</v>
+        <v>4177.698613606775</v>
       </c>
       <c r="S8">
-        <v>0.2149947385142498</v>
+        <v>0.2601955378735796</v>
       </c>
       <c r="T8">
-        <v>0.2805989785498109</v>
+        <v>0.3256057841262038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J9">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N9">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O9">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P9">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q9">
-        <v>1.634691623062222</v>
+        <v>2.020405732809444</v>
       </c>
       <c r="R9">
-        <v>14.71222460756</v>
+        <v>18.183651595285</v>
       </c>
       <c r="S9">
-        <v>0.0007571275898561013</v>
+        <v>0.001132514679716503</v>
       </c>
       <c r="T9">
-        <v>0.0009881601280741161</v>
+        <v>0.00141721619570084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J10">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N10">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O10">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P10">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q10">
-        <v>229.5837866423184</v>
+        <v>60.29090869615251</v>
       </c>
       <c r="R10">
-        <v>1377.50271985391</v>
+        <v>361.745452176915</v>
       </c>
       <c r="S10">
-        <v>0.1063345627996281</v>
+        <v>0.03379536003240986</v>
       </c>
       <c r="T10">
-        <v>0.0925212400151791</v>
+        <v>0.02819409021668579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J11">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N11">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O11">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P11">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q11">
-        <v>0.407601437678889</v>
+        <v>0.1782237387061111</v>
       </c>
       <c r="R11">
-        <v>3.66841293911</v>
+        <v>1.604013648355</v>
       </c>
       <c r="S11">
-        <v>0.000188785633802659</v>
+        <v>9.990122136406836E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002463923367426675</v>
+        <v>0.00012501527037415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H12">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I12">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J12">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N12">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O12">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P12">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q12">
-        <v>0.6229724250030001</v>
+        <v>255.273633031917</v>
       </c>
       <c r="R12">
-        <v>5.606751825027001</v>
+        <v>1531.641798191502</v>
       </c>
       <c r="S12">
-        <v>0.000288537363276975</v>
+        <v>0.1430906337566189</v>
       </c>
       <c r="T12">
-        <v>0.0003765826548523124</v>
+        <v>0.1193746784596449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H13">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I13">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J13">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N13">
         <v>161.160385</v>
       </c>
       <c r="O13">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P13">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q13">
-        <v>1.369702112115</v>
+        <v>614.3001160566276</v>
       </c>
       <c r="R13">
-        <v>12.327319009035</v>
+        <v>3685.800696339766</v>
       </c>
       <c r="S13">
-        <v>0.0006343944290995904</v>
+        <v>0.3443387077595951</v>
       </c>
       <c r="T13">
-        <v>0.0008279757450493935</v>
+        <v>0.2872677368242482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H14">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I14">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J14">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N14">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O14">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P14">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q14">
-        <v>0.004823556456</v>
+        <v>2.6737733662585</v>
       </c>
       <c r="R14">
-        <v>0.043412008104</v>
+        <v>16.042640197551</v>
       </c>
       <c r="S14">
-        <v>2.23408967327112E-06</v>
+        <v>0.001498752225035562</v>
       </c>
       <c r="T14">
-        <v>2.915807543201842E-06</v>
+        <v>0.001250347840786061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H15">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I15">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J15">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N15">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O15">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P15">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q15">
-        <v>0.6774429749490001</v>
+        <v>79.78804617384226</v>
       </c>
       <c r="R15">
-        <v>4.064657849694</v>
+        <v>319.152184695369</v>
       </c>
       <c r="S15">
-        <v>0.0003137660704024788</v>
+        <v>0.0447242512186521</v>
       </c>
       <c r="T15">
-        <v>0.0002730064914361867</v>
+        <v>0.02487441219787041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H16">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I16">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J16">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N16">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O16">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P16">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q16">
-        <v>0.001202727486</v>
+        <v>0.2358585100255</v>
       </c>
       <c r="R16">
-        <v>0.010824547374</v>
+        <v>1.415151060153</v>
       </c>
       <c r="S16">
-        <v>5.570580713095184E-07</v>
+        <v>0.0001322077148180086</v>
       </c>
       <c r="T16">
-        <v>7.27040702868263E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.070754</v>
-      </c>
-      <c r="H17">
-        <v>20.141508</v>
-      </c>
-      <c r="I17">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J17">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>24.43316566666667</v>
-      </c>
-      <c r="N17">
-        <v>73.299497</v>
-      </c>
-      <c r="O17">
-        <v>0.2327873509383369</v>
-      </c>
-      <c r="P17">
-        <v>0.2542402694696194</v>
-      </c>
-      <c r="Q17">
-        <v>246.060400870246</v>
-      </c>
-      <c r="R17">
-        <v>1476.362405221476</v>
-      </c>
-      <c r="S17">
-        <v>0.1139659099255225</v>
-      </c>
-      <c r="T17">
-        <v>0.09916124191563828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>10.070754</v>
-      </c>
-      <c r="H18">
-        <v>20.141508</v>
-      </c>
-      <c r="I18">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J18">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>53.72012833333333</v>
-      </c>
-      <c r="N18">
-        <v>161.160385</v>
-      </c>
-      <c r="O18">
-        <v>0.5118193253134121</v>
-      </c>
-      <c r="P18">
-        <v>0.558986915152059</v>
-      </c>
-      <c r="Q18">
-        <v>541.0021972934298</v>
-      </c>
-      <c r="R18">
-        <v>3246.01318376058</v>
-      </c>
-      <c r="S18">
-        <v>0.2505718411747427</v>
-      </c>
-      <c r="T18">
-        <v>0.2180214677899141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>10.070754</v>
-      </c>
-      <c r="H19">
-        <v>20.141508</v>
-      </c>
-      <c r="I19">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J19">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.1891813333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.567544</v>
-      </c>
-      <c r="O19">
-        <v>0.001802427979839308</v>
-      </c>
-      <c r="P19">
-        <v>0.001968533829036585</v>
-      </c>
-      <c r="Q19">
-        <v>1.905198669392</v>
-      </c>
-      <c r="R19">
-        <v>11.431192016352</v>
-      </c>
-      <c r="S19">
-        <v>0.0008824162651862503</v>
-      </c>
-      <c r="T19">
-        <v>0.0007677865495007287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>10.070754</v>
-      </c>
-      <c r="H20">
-        <v>20.141508</v>
-      </c>
-      <c r="I20">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J20">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>26.569517</v>
-      </c>
-      <c r="N20">
-        <v>53.139034</v>
-      </c>
-      <c r="O20">
-        <v>0.2531414701853045</v>
-      </c>
-      <c r="P20">
-        <v>0.1843134383789191</v>
-      </c>
-      <c r="Q20">
-        <v>267.575069605818</v>
-      </c>
-      <c r="R20">
-        <v>1070.300278423272</v>
-      </c>
-      <c r="S20">
-        <v>0.1239306941432343</v>
-      </c>
-      <c r="T20">
-        <v>0.07188770484519598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>10.070754</v>
-      </c>
-      <c r="H21">
-        <v>20.141508</v>
-      </c>
-      <c r="I21">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J21">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.04717133333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.141514</v>
-      </c>
-      <c r="O21">
-        <v>0.0004494255831071774</v>
-      </c>
-      <c r="P21">
-        <v>0.0004908431703661447</v>
-      </c>
-      <c r="Q21">
-        <v>0.475050893852</v>
-      </c>
-      <c r="R21">
-        <v>2.850305363112</v>
-      </c>
-      <c r="S21">
-        <v>0.0002200256814477239</v>
-      </c>
-      <c r="T21">
-        <v>0.0001914433872370179</v>
+        <v>0.0001102955031503183</v>
       </c>
     </row>
   </sheetData>
